--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.8360401712905</v>
+        <v>162.7786465230315</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.7554922539436</v>
+        <v>222.720925459766</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.8904066774762</v>
+        <v>201.4647529247321</v>
       </c>
       <c r="AD2" t="n">
-        <v>113836.0401712905</v>
+        <v>162778.6465230315</v>
       </c>
       <c r="AE2" t="n">
-        <v>155755.4922539436</v>
+        <v>222720.925459766</v>
       </c>
       <c r="AF2" t="n">
         <v>1.625975425259479e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.652777777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>140890.4066774762</v>
+        <v>201464.7529247321</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.7553694616055</v>
+        <v>161.1581152121454</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.2768709131265</v>
+        <v>220.5036430274171</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.5529028821682</v>
+        <v>199.4590848157504</v>
       </c>
       <c r="AD2" t="n">
-        <v>112755.3694616055</v>
+        <v>161158.1152121454</v>
       </c>
       <c r="AE2" t="n">
-        <v>154276.8709131265</v>
+        <v>220503.6430274171</v>
       </c>
       <c r="AF2" t="n">
         <v>1.736947312111767e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.884259259259258</v>
       </c>
       <c r="AH2" t="n">
-        <v>139552.9028821682</v>
+        <v>199459.0848157504</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.6251890606893</v>
+        <v>197.6907596913432</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.7778317351244</v>
+        <v>270.4892189103563</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.2839474432739</v>
+        <v>244.6741074916342</v>
       </c>
       <c r="AD2" t="n">
-        <v>141625.1890606893</v>
+        <v>197690.7596913432</v>
       </c>
       <c r="AE2" t="n">
-        <v>193777.8317351243</v>
+        <v>270489.2189103563</v>
       </c>
       <c r="AF2" t="n">
         <v>1.962394077465398e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.21064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>175283.9474432738</v>
+        <v>244674.1074916342</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.6850505356189</v>
+        <v>178.5463058877106</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.4948545083109</v>
+        <v>244.294932622546</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.6048192710797</v>
+        <v>220.9797671232124</v>
       </c>
       <c r="AD2" t="n">
-        <v>121685.0505356189</v>
+        <v>178546.3058877107</v>
       </c>
       <c r="AE2" t="n">
-        <v>166494.8545083109</v>
+        <v>244294.932622546</v>
       </c>
       <c r="AF2" t="n">
         <v>1.906870255521496e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.8912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>150604.8192710798</v>
+        <v>220979.7671232124</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.0401580105217</v>
+        <v>227.7315405410566</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.0787370140224</v>
+        <v>311.5923405746291</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.7884154464421</v>
+        <v>281.8544049128755</v>
       </c>
       <c r="AD2" t="n">
-        <v>163040.1580105216</v>
+        <v>227731.5405410566</v>
       </c>
       <c r="AE2" t="n">
-        <v>223078.7370140224</v>
+        <v>311592.3405746291</v>
       </c>
       <c r="AF2" t="n">
         <v>1.938736825365537e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>201788.4154464421</v>
+        <v>281854.4049128755</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.6903441311996</v>
+        <v>161.2349876253328</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.18790038735</v>
+        <v>220.6088232545114</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.4724235785009</v>
+        <v>199.5542267895922</v>
       </c>
       <c r="AD2" t="n">
-        <v>112690.3441311996</v>
+        <v>161234.9876253328</v>
       </c>
       <c r="AE2" t="n">
-        <v>154187.90038735</v>
+        <v>220608.8232545114</v>
       </c>
       <c r="AF2" t="n">
         <v>1.72380108300921e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.722222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>139472.4235785009</v>
+        <v>199554.2267895922</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.4675606804244</v>
+        <v>258.1048951110213</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.0824576052865</v>
+        <v>353.150504275234</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.169324809353</v>
+        <v>319.4463157970505</v>
       </c>
       <c r="AD2" t="n">
-        <v>175467.5606804244</v>
+        <v>258104.8951110214</v>
       </c>
       <c r="AE2" t="n">
-        <v>240082.4576052865</v>
+        <v>353150.504275234</v>
       </c>
       <c r="AF2" t="n">
         <v>1.881717666684908e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.96064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>217169.324809353</v>
+        <v>319446.3157970505</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.6465763358969</v>
+        <v>169.5214754461571</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.4422124108894</v>
+        <v>231.9467614649994</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.5572012615525</v>
+        <v>209.810088090171</v>
       </c>
       <c r="AD2" t="n">
-        <v>121646.5763358969</v>
+        <v>169521.4754461571</v>
       </c>
       <c r="AE2" t="n">
-        <v>166442.2124108894</v>
+        <v>231946.7614649993</v>
       </c>
       <c r="AF2" t="n">
         <v>1.836788004949371e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.16203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>150557.2012615525</v>
+        <v>209810.088090171</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.3105470286814</v>
+        <v>170.1487587916987</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.6682452362192</v>
+        <v>232.8050382121569</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.0023635856533</v>
+        <v>210.5864521091792</v>
       </c>
       <c r="AD2" t="n">
-        <v>112310.5470286814</v>
+        <v>170148.7587916987</v>
       </c>
       <c r="AE2" t="n">
-        <v>153668.2452362192</v>
+        <v>232805.0382121569</v>
       </c>
       <c r="AF2" t="n">
         <v>1.777900471219358e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.918981481481483</v>
       </c>
       <c r="AH2" t="n">
-        <v>139002.3635856532</v>
+        <v>210586.4521091792</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.4739365150947</v>
+        <v>162.2881113989501</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.260046056651</v>
+        <v>222.0497536621158</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.44224516989</v>
+        <v>200.8576368214538</v>
       </c>
       <c r="AD2" t="n">
-        <v>113473.9365150948</v>
+        <v>162288.1113989501</v>
       </c>
       <c r="AE2" t="n">
-        <v>155260.046056651</v>
+        <v>222049.7536621158</v>
       </c>
       <c r="AF2" t="n">
         <v>1.657433935998155e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.664351851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>140442.24516989</v>
+        <v>200857.6368214538</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.6169474032318</v>
+        <v>178.7012339196866</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.4016727980807</v>
+        <v>244.5069119908377</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.5205306924925</v>
+        <v>221.1715154781094</v>
       </c>
       <c r="AD2" t="n">
-        <v>121616.9474032318</v>
+        <v>178701.2339196866</v>
       </c>
       <c r="AE2" t="n">
-        <v>166401.6727980807</v>
+        <v>244506.9119908377</v>
       </c>
       <c r="AF2" t="n">
         <v>1.883517955900665e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.60185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>150520.5306924926</v>
+        <v>221171.5154781094</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.7099399285321</v>
+        <v>188.1155401404122</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.2113504425942</v>
+        <v>257.3879810919059</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.0122320846224</v>
+        <v>232.8232334228698</v>
       </c>
       <c r="AD2" t="n">
-        <v>131709.9399285321</v>
+        <v>188115.5401404122</v>
       </c>
       <c r="AE2" t="n">
-        <v>180211.3504425942</v>
+        <v>257387.9810919059</v>
       </c>
       <c r="AF2" t="n">
         <v>1.946113342584396e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>163012.2320846223</v>
+        <v>232823.2334228698</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.0319339654041</v>
+        <v>207.8345840823935</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.0167992269306</v>
+        <v>284.3684469561325</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.163967862183</v>
+        <v>257.2287214923448</v>
       </c>
       <c r="AD2" t="n">
-        <v>152031.9339654041</v>
+        <v>207834.5840823936</v>
       </c>
       <c r="AE2" t="n">
-        <v>208016.7992269306</v>
+        <v>284368.4469561325</v>
       </c>
       <c r="AF2" t="n">
         <v>1.958874819837998e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>188163.967862183</v>
+        <v>257228.7214923449</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.378978196018</v>
+        <v>300.4052628767976</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.7957521682235</v>
+        <v>411.0277336128878</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.2791049438485</v>
+        <v>371.7998235979203</v>
       </c>
       <c r="AD2" t="n">
-        <v>218378.978196018</v>
+        <v>300405.2628767976</v>
       </c>
       <c r="AE2" t="n">
-        <v>298795.7521682235</v>
+        <v>411027.7336128878</v>
       </c>
       <c r="AF2" t="n">
         <v>1.764514706804063e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.12037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>270279.1049438485</v>
+        <v>371799.8235979203</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.0064416567438</v>
+        <v>170.0412978101247</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.9345960190093</v>
+        <v>232.6580053563236</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.0025924691784</v>
+        <v>210.4534518627446</v>
       </c>
       <c r="AD2" t="n">
-        <v>122006.4416567438</v>
+        <v>170041.2978101247</v>
       </c>
       <c r="AE2" t="n">
-        <v>166934.5960190094</v>
+        <v>232658.0053563236</v>
       </c>
       <c r="AF2" t="n">
         <v>1.797068757766611e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.08101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>151002.5924691784</v>
+        <v>210453.4518627446</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.3192394364245</v>
+        <v>162.0008834012234</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.048382688861</v>
+        <v>221.6567556440214</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.2507826568504</v>
+        <v>200.5021459826301</v>
       </c>
       <c r="AD2" t="n">
-        <v>113319.2394364245</v>
+        <v>162000.8834012234</v>
       </c>
       <c r="AE2" t="n">
-        <v>155048.382688861</v>
+        <v>221656.7556440214</v>
       </c>
       <c r="AF2" t="n">
         <v>1.678130631605501e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.756944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>140250.7826568504</v>
+        <v>200502.1459826301</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.9977567782501</v>
+        <v>413.3447969490085</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.6829922714317</v>
+        <v>565.5565866710799</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.2058786230866</v>
+        <v>511.5806598028459</v>
       </c>
       <c r="AD2" t="n">
-        <v>286997.75677825</v>
+        <v>413344.7969490085</v>
       </c>
       <c r="AE2" t="n">
-        <v>392682.9922714317</v>
+        <v>565556.5866710799</v>
       </c>
       <c r="AF2" t="n">
         <v>1.528762500814994e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.98379629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>355205.8786230866</v>
+        <v>511580.6598028459</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.4114520319296</v>
+        <v>187.9686139685308</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.8029461341063</v>
+        <v>257.1869502216127</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.6428053101373</v>
+        <v>232.6413886566887</v>
       </c>
       <c r="AD2" t="n">
-        <v>131411.4520319296</v>
+        <v>187968.6139685308</v>
       </c>
       <c r="AE2" t="n">
-        <v>179802.9461341063</v>
+        <v>257186.9502216127</v>
       </c>
       <c r="AF2" t="n">
         <v>1.9276581698263e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.23842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>162642.8053101373</v>
+        <v>232641.3886566887</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.5592015037098</v>
+        <v>169.2666214416157</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.3226623107855</v>
+        <v>231.5980589726207</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.4490608552128</v>
+        <v>209.494665274258</v>
       </c>
       <c r="AD2" t="n">
-        <v>121559.2015037098</v>
+        <v>169266.6214416157</v>
       </c>
       <c r="AE2" t="n">
-        <v>166322.6623107855</v>
+        <v>231598.0589726208</v>
       </c>
       <c r="AF2" t="n">
         <v>1.862016113936569e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.3587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>150449.0608552128</v>
+        <v>209494.6652742579</v>
       </c>
     </row>
   </sheetData>
